--- a/room_attribution/resultats/demi_journee_1/statistiques.xlsx
+++ b/room_attribution/resultats/demi_journee_1/statistiques.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>6406</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1104.20s</t>
+          <t>658.79s</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1019 (96.5%)</t>
+          <t>1042 (98.7%)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>37 (3.5%)</t>
+          <t>14 (1.3%)</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>3780</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>444</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>218</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
